--- a/rental price office per m2.xlsx
+++ b/rental price office per m2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanneheemsbergen/Desktop/CoSEM/Design in Networked Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5D5158-E3CC-6C4F-87E6-2CA27C5BED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71B6B10-AE62-224F-B300-740AB6137499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+  <si>
+    <t>€/m2 per jaar</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>huurprijs/m2</t>
+  </si>
+  <si>
+    <t>m2 price = fictief</t>
+  </si>
   <si>
     <t>Zaandam</t>
   </si>
@@ -44,109 +56,184 @@
     <t>Amsterdam</t>
   </si>
   <si>
+    <t>https://www.nvm.nl/media/wrzfaj5s/stand-van-zaken-kantorenmarkt-2023.pdf</t>
+  </si>
+  <si>
+    <t>22,78</t>
+  </si>
+  <si>
+    <t>NVM, Huurprijs kale huurwoningen per m2, eind 2023.</t>
+  </si>
+  <si>
     <t>Haarlem</t>
   </si>
   <si>
+    <t>https://www.flexas.com/nl/nld/kantoorruimte-huren/haarlem</t>
+  </si>
+  <si>
     <t>Schiphol</t>
   </si>
   <si>
+    <t>https://www.cbre.nl/beschikbaar-vastgoed/kantoor/details/NL-1788/wtc-amsterdam-airport-schiphol-boulevard-105-699-1118-bg-schiphol-haarlemmermeer-1118-bg</t>
+  </si>
+  <si>
+    <t>https://www.schiphol.nl/nl/real-estate/aanbod</t>
+  </si>
+  <si>
     <t>Leiden</t>
   </si>
   <si>
+    <t>https://www.flexas.com/nl/nld/kantoorruimte-huren/leiden</t>
+  </si>
+  <si>
     <t>Den Haag</t>
   </si>
   <si>
+    <t>16,91</t>
+  </si>
+  <si>
     <t>Zoetermeer</t>
   </si>
   <si>
     <t>Delft</t>
   </si>
   <si>
+    <t>https://www.huurbieding.nl/huren/kantoorruimte/delft-papsouwselaan-119-2624ak/4831</t>
+  </si>
+  <si>
     <t>Rotterdam</t>
   </si>
   <si>
+    <t>16,37</t>
+  </si>
+  <si>
     <t>Spijkenisse</t>
   </si>
   <si>
+    <t>https://www.molenaarbedrijfshuisvesting.nl/kantoorruimte/hoogwerfsingel-2-spijkenisse/</t>
+  </si>
+  <si>
     <t>Dordrecht</t>
   </si>
   <si>
+    <t>https://www.goedkopekantoorruimte.nl/stad/kantoorruimte-dordrecht/</t>
+  </si>
+  <si>
     <t>Vlaardingen</t>
   </si>
   <si>
+    <t>https://kantoorbalie.nl/index.php/kantoorruimte/vlaardingen/burgemeester-van-lierplein-1-3</t>
+  </si>
+  <si>
     <t>Alphen aan den Rijn</t>
   </si>
   <si>
+    <t>https://www.goedkopekantoorruimte.nl/stad/kantoorruimte-alphen-aan-den-rijn/</t>
+  </si>
+  <si>
     <t>Gouda</t>
   </si>
   <si>
+    <t>https://www.fundainbusiness.nl/kantoor/gouda/object-42239542-burgemeester-jamessingel-33-a-33-b/#:~:text=De%20verwachting%20is%20dat%20het,en%20servicekosten.</t>
+  </si>
+  <si>
     <t>Woerden</t>
   </si>
   <si>
+    <t>https://www.matchoffice.nl/huren/kantoren/woerden#:~:text=In%20dit%20geval%20betaalt%20u,en%20%E2%82%AC550%20per%20maand.</t>
+  </si>
+  <si>
     <t>Utrecht</t>
   </si>
   <si>
     <t>Hilversum</t>
   </si>
   <si>
+    <t>https://www.matchoffice.nl/huren/kantoren/hilversum</t>
+  </si>
+  <si>
     <t>Almere</t>
   </si>
   <si>
+    <t>11,78</t>
+  </si>
+  <si>
     <t>Amersfoort</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>https://www.nvm.nl/media/wrzfaj5s/stand-van-zaken-kantorenmarkt-2023.pdf</t>
-  </si>
-  <si>
-    <t>€/m2 per jaar</t>
-  </si>
-  <si>
-    <t>https://www.flexas.com/nl/nld/kantoorruimte-huren/haarlem</t>
-  </si>
-  <si>
-    <t>https://www.cbre.nl/beschikbaar-vastgoed/kantoor/details/NL-1788/wtc-amsterdam-airport-schiphol-boulevard-105-699-1118-bg-schiphol-haarlemmermeer-1118-bg</t>
-  </si>
-  <si>
-    <t>https://www.schiphol.nl/nl/real-estate/aanbod</t>
-  </si>
-  <si>
-    <t>https://www.flexas.com/nl/nld/kantoorruimte-huren/leiden</t>
-  </si>
-  <si>
-    <t>https://www.huurbieding.nl/huren/kantoorruimte/delft-papsouwselaan-119-2624ak/4831</t>
-  </si>
-  <si>
-    <t>https://www.molenaarbedrijfshuisvesting.nl/kantoorruimte/hoogwerfsingel-2-spijkenisse/</t>
-  </si>
-  <si>
-    <t>https://www.goedkopekantoorruimte.nl/stad/kantoorruimte-dordrecht/</t>
-  </si>
-  <si>
-    <t>https://kantoorbalie.nl/index.php/kantoorruimte/vlaardingen/burgemeester-van-lierplein-1-3</t>
-  </si>
-  <si>
-    <t>https://www.goedkopekantoorruimte.nl/stad/kantoorruimte-alphen-aan-den-rijn/</t>
-  </si>
-  <si>
-    <t>https://www.fundainbusiness.nl/kantoor/gouda/object-42239542-burgemeester-jamessingel-33-a-33-b/#:~:text=De%20verwachting%20is%20dat%20het,en%20servicekosten.</t>
-  </si>
-  <si>
-    <t>https://www.matchoffice.nl/huren/kantoren/woerden#:~:text=In%20dit%20geval%20betaalt%20u,en%20%E2%82%AC550%20per%20maand.</t>
-  </si>
-  <si>
-    <t>https://www.matchoffice.nl/huren/kantoren/hilversum</t>
-  </si>
-  <si>
     <t>https://www.flexas.com/nl/nld/kantoorruimte-huren/amersfoort#:~:text=Een%20kantoorruimte%20huren%20in%20Amersfoort,het%20stadsdeel%20dat%20u%20kiest.</t>
   </si>
   <si>
-    <t>m2 price = fictief</t>
+    <t>14,05</t>
+  </si>
+  <si>
+    <t>13,05</t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://prismic-io.s3.amazonaws.com/pararius/fb6da56a-2650-4986-826c-70fd15ff3275_Huurmonitor+Pararius+-+Q3+2023.pdf</t>
+  </si>
+  <si>
+    <t>15,85</t>
+  </si>
+  <si>
+    <t>18,54</t>
+  </si>
+  <si>
+    <t>https://www.citynieuws.nl/huurprijzen-in-haarlem-stijgen-weer/#:~:text=Betaalde%20een%20huurder%20vorig%20jaar,gemeten%2C%20zo%20ook%20in%20Haarlem.</t>
+  </si>
+  <si>
+    <t>18,07</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=gemiddelde+huurprijs+leiden&amp;oq=gemiddelde+huurprijs+leiden&amp;gs_lcrp=EgZjaHJvbWUyCQgAEEUYORiABDIICAEQABgWGB4yCAgCEAAYFhgeMggIAxAAGBYYHtIBCDc4MDlqMGo3qAIAsAIA&amp;sourceid=chrome&amp;ie=UTF-8</t>
+  </si>
+  <si>
+    <t>12,61</t>
+  </si>
+  <si>
+    <t>https://indebuurt.nl/zoetermeer/wonen/zucht-de-gemiddelde-huurprijzen-dalen-maar-in-zoetermeer-zit-het-anders~102055/</t>
+  </si>
+  <si>
+    <t>16,73</t>
+  </si>
+  <si>
+    <t>https://indebuurt.nl/delft/nieuws/huren-weer-duurder-dit-is-de-gemiddelde-huurprijs-huren-in-delft~158384/</t>
+  </si>
+  <si>
+    <t>13,17</t>
+  </si>
+  <si>
+    <t>https://indebuurt.nl/dordrecht/nieuws/huurprijzen-in-dordrecht-flink-gestegen-dit-betaal-je-nu-gemiddeld-voor-een-huurhuis~167212/</t>
+  </si>
+  <si>
+    <t>14,79</t>
+  </si>
+  <si>
+    <t>https://indebuurt.nl/gouda/nieuws/huurprijzen-q2-gouda~164302/</t>
+  </si>
+  <si>
+    <t>14,88</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=gemiddelde+huurprijs+Hilversum&amp;sca_esv=f0f6d5f05aa680dc&amp;sca_upv=1&amp;sxsrf=ACQVn0-Fjej_MiUtEuqsmr5ht-oNrLKz7g%3A1712567966398&amp;ei=nrYTZtftF_SA9u8PzdK66Aw&amp;ved=0ahUKEwjXtKnqpLKFAxV0gP0HHU2pDs0Q4dUDCBA&amp;uact=5&amp;oq=gemiddelde+huurprijs+Hilversum&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiHmdlbWlkZGVsZGUgaHV1cnByaWpzIEhpbHZlcnN1bTIFEAAYgARIhg1QjANYvgtwAXgBkAEAmAFVoAH8BKoBATm4AQPIAQD4AQGYAgqgApwFwgIKEAAYRxjWBBiwA8ICChAjGIAEGIoFGCeYAwCIBgGQBgiSBwIxMKAHhxA&amp;sclient=gws-wiz-serp</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>https://www.fundainbusiness.nl/kantoor/zaandam/object-42436691-provincialeweg-33/</t>
+  </si>
+  <si>
+    <t>13,24</t>
+  </si>
+  <si>
+    <t>https://www.funda.nl/zoeken/huur/?selected_area=%5B%22zaandam%22%5D</t>
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>City2</t>
   </si>
 </sst>
 </file>
@@ -170,12 +257,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,9 +284,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -210,10 +304,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,166 +623,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="S10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>110</v>
       </c>
       <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>12</v>
       </c>
       <c r="C14">
         <v>140</v>
@@ -700,71 +904,128 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>140</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="T15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="S16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="S19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="S20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +1197,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81240A12-9941-485E-B979-7AB09C9D6E04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7BF3D1-66CE-4E87-A2AF-1B61FB3CF347}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -956,14 +1217,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861F9DAF-A336-4982-8CE2-00A154E4E859}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b4a98090-7648-4ec7-b0f1-d9abe35df1d8"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b4a98090-7648-4ec7-b0f1-d9abe35df1d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/rental price office per m2.xlsx
+++ b/rental price office per m2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanneheemsbergen/Desktop/CoSEM/Design in Networked Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71B6B10-AE62-224F-B300-740AB6137499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD2ACFD-1FC9-664F-A6B3-4BF846D71C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>€/m2 per jaar</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>City2</t>
+  </si>
+  <si>
+    <t>1,00</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,8 +736,8 @@
       <c r="S5" t="s">
         <v>11</v>
       </c>
-      <c r="T5">
-        <v>1</v>
+      <c r="T5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">

--- a/rental price office per m2.xlsx
+++ b/rental price office per m2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanneheemsbergen/Desktop/CoSEM/Design in Networked Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD2ACFD-1FC9-664F-A6B3-4BF846D71C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DAE4B17-B51D-1645-A1F3-4AB6211ADD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>€/m2 per jaar</t>
   </si>
@@ -218,9 +218,6 @@
     <t>https://www.google.com/search?q=gemiddelde+huurprijs+Hilversum&amp;sca_esv=f0f6d5f05aa680dc&amp;sca_upv=1&amp;sxsrf=ACQVn0-Fjej_MiUtEuqsmr5ht-oNrLKz7g%3A1712567966398&amp;ei=nrYTZtftF_SA9u8PzdK66Aw&amp;ved=0ahUKEwjXtKnqpLKFAxV0gP0HHU2pDs0Q4dUDCBA&amp;uact=5&amp;oq=gemiddelde+huurprijs+Hilversum&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiHmdlbWlkZGVsZGUgaHV1cnByaWpzIEhpbHZlcnN1bTIFEAAYgARIhg1QjANYvgtwAXgBkAEAmAFVoAH8BKoBATm4AQPIAQD4AQGYAgqgApwFwgIKEAAYRxjWBBiwA8ICChAjGIAEGIoFGCeYAwCIBgGQBgiSBwIxMKAHhxA&amp;sclient=gws-wiz-serp</t>
   </si>
   <si>
-    <t>13,5</t>
-  </si>
-  <si>
     <t>https://www.fundainbusiness.nl/kantoor/zaandam/object-42436691-provincialeweg-33/</t>
   </si>
   <si>
@@ -237,6 +234,15 @@
   </si>
   <si>
     <t>1,00</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
+    <t>14,5</t>
+  </si>
+  <si>
+    <t>https://www.huurstunt.nl/appartement/huren/spijkenisse/</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,7 +648,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -651,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T1" t="s">
         <v>2</v>
@@ -668,16 +674,16 @@
         <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
         <v>4</v>
       </c>
       <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
         <v>62</v>
-      </c>
-      <c r="U2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -737,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -854,7 +860,10 @@
         <v>23</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="U11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -948,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
